--- a/06成绩/20240717_电磁组_决赛成绩.xlsx
+++ b/06成绩/20240717_电磁组_决赛成绩.xlsx
@@ -197,11 +197,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,14 +236,114 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -255,51 +355,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,92 +383,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -406,6 +393,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -418,25 +465,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,145 +573,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,23 +620,47 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -664,31 +681,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -707,17 +709,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -726,152 +719,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -890,10 +883,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1218,7 +1214,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="A7" sqref="A7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1308,16 +1304,16 @@
       </c>
     </row>
     <row r="7" ht="15" spans="1:4">
-      <c r="A7" s="4">
+      <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="7">
         <v>20.958</v>
       </c>
     </row>
@@ -1339,7 +1335,7 @@
       <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -1499,7 +1495,7 @@
       <c r="C20" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="8" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1513,7 +1509,7 @@
       <c r="C21" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="8" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1527,7 +1523,7 @@
       <c r="C22" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="8" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1541,7 +1537,7 @@
       <c r="C23" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="8" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1555,7 +1551,7 @@
       <c r="C24" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="8" t="s">
         <v>41</v>
       </c>
     </row>
